--- a/Input/Runfiles/RiskDriverSimulation/IRinput.xlsx
+++ b/Input/Runfiles/RiskDriverSimulation/IRinput.xlsx
@@ -5,19 +5,27 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JQ228YH\Documents\CVA Tool Python\CVA-Tool\Runfiles\RiskDriverSimulation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JQ228YH\Documents\CVA Tool Python\CVA-Tool\Input\Runfiles\RiskDriverSimulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6105535E-A763-4B23-96D5-379956EF59DF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B79401-EEF3-4B1B-ACCB-195228C7169A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6465" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4356" yWindow="3384" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -512,7 +520,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" customWidth="1"/>
     <col min="3" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Input/Runfiles/RiskDriverSimulation/IRinput.xlsx
+++ b/Input/Runfiles/RiskDriverSimulation/IRinput.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JQ228YH\Documents\CVA Tool Python\CVA-Tool\Input\Runfiles\RiskDriverSimulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B79401-EEF3-4B1B-ACCB-195228C7169A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4A6848-999D-4A51-AA2D-9016BAEFDAB5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4356" yWindow="3384" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -50,18 +50,6 @@
     <t>MeanReversion</t>
   </si>
   <si>
-    <t>EURIBOR6M 31122019</t>
-  </si>
-  <si>
-    <t>USD LIBOR3M OISSTRIPPED 31122019</t>
-  </si>
-  <si>
-    <t>USD VOL EURUSD 8Y coterminal alpha3perc 31122019</t>
-  </si>
-  <si>
-    <t>EUR VOL EURUSD 8Y coterminal alpha3perc 31122019</t>
-  </si>
-  <si>
     <t>domestic</t>
   </si>
   <si>
@@ -128,7 +116,16 @@
     <t>Discountcurve</t>
   </si>
   <si>
-    <t>USDOIS 31122019</t>
+    <t>EURIBOR3M 30112020</t>
+  </si>
+  <si>
+    <t>USD CF EURIBOR3M CSA</t>
+  </si>
+  <si>
+    <t>EUR Vol 14Y coterm 3perc 30112020</t>
+  </si>
+  <si>
+    <t>USD Vol 14Y coterm 3perc 30112020</t>
   </si>
 </sst>
 </file>
@@ -526,67 +523,67 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>25</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>26</v>
-      </c>
-      <c r="S1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U1" t="s">
-        <v>29</v>
-      </c>
-      <c r="V1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -594,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -605,10 +602,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -616,10 +613,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -637,10 +634,10 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
